--- a/medicine/Psychotrope/Brasserie_Liefmans/Brasserie_Liefmans.xlsx
+++ b/medicine/Psychotrope/Brasserie_Liefmans/Brasserie_Liefmans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie Liefmans est une brasserie belge fondée en 1679 par la  famille Liefmans. Elle fut propriété de la brasserie Dentergem de 1990 à 2007; elle fait maintenant partie de groupe Duvel Moortgat. La brasserie est située dans la ville flamande de Audenarde.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vers 1679, un certain Jacobus Liefmans s'établit en tant que brasseur à Audenarde. Le processus de brassage spéciale s'effectue selon une recette vieille de 300 ans. Tous les équipements de brassage sont en cuivre, ce qui est typique des brasseries anglaises.
 </t>
@@ -543,9 +557,11 @@
           <t>Reprise</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1990, la brasserie Liefmans est acquise par brasserie Riva de Dentergem. En 2002, le groupe Riva décide changer son nom en Liefmans[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1990, la brasserie Liefmans est acquise par brasserie Riva de Dentergem. En 2002, le groupe Riva décide changer son nom en Liefmans.
 En décembre 2007, le tribunal de commerce de Courtrai déclare la brasserie Liefmans, avec des bureaux à Audenarde et Dentergem, en faillite.
 En juin 2008, la brasserie est rachetée par le groupe Duvel Moortgat, l'ensemble de la transaction, comprenant tous les biens, s'élève à 4,5 millions d'euros.
 En juillet 2009, la brasserie Liefmans apporte une nouveauté : une nouvelle bière fruitée servie avec des glaçons.
@@ -577,7 +593,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gamme actuelle
 Liefmans Fruitesse
@@ -625,7 +643,9 @@
           <t>Autres brasseries du groupe Duvel Moortgat en Belgique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Brasserie d'Achouffe
 Brasserie De Koninck
